--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/GEORGIA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/GEORGIA_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1612"/>
+  <dimension ref="A1:D1606"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C32">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C33">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C37">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C39">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C49">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C54">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C83">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C84">
@@ -1525,7 +1525,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C88">
@@ -1577,7 +1577,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C92">
@@ -1720,7 +1720,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C103">
@@ -1733,7 +1733,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C104">
@@ -1759,7 +1759,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Santiago el Pinar</t>
+          <t>Santiago El Pinar</t>
         </is>
       </c>
       <c r="C106">
@@ -2284,7 +2284,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C146">
@@ -2310,7 +2310,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C148">
@@ -2414,7 +2414,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2458,7 +2458,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C159">
@@ -2653,7 +2653,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2879,7 +2879,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C191">
@@ -3027,7 +3027,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C202">
@@ -3201,7 +3201,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C215">
@@ -3253,7 +3253,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C219">
@@ -3279,7 +3279,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C221">
@@ -3292,7 +3292,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C222">
@@ -3305,7 +3305,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C223">
@@ -3422,12 +3422,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C232">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C235">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C236">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C242">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C248">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C251">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C258">
@@ -3856,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C265">
@@ -3869,7 +3869,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C266">
@@ -4051,7 +4051,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C280">
@@ -4181,7 +4181,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C290">
@@ -4194,7 +4194,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C291">
@@ -4207,7 +4207,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C292">
@@ -4233,7 +4233,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C294">
@@ -4259,7 +4259,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C296">
@@ -4376,7 +4376,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C305">
@@ -4506,7 +4506,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C315">
@@ -4571,7 +4571,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C320">
@@ -4584,7 +4584,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C321">
@@ -4623,7 +4623,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C324">
@@ -4636,7 +4636,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C325">
@@ -4771,7 +4771,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C335">
@@ -4784,7 +4784,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C336">
@@ -4901,7 +4901,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C345">
@@ -4953,7 +4953,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C349">
@@ -5044,7 +5044,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C356">
@@ -5109,7 +5109,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C361">
@@ -5135,7 +5135,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C363">
@@ -5161,7 +5161,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C365">
@@ -5174,7 +5174,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C366">
@@ -5187,7 +5187,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C367">
@@ -5213,7 +5213,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C369">
@@ -5278,7 +5278,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C374">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C380">
@@ -5400,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C383">
@@ -5413,7 +5413,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C384">
@@ -5465,7 +5465,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C388">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C389">
@@ -5504,7 +5504,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C391">
@@ -5517,7 +5517,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C392">
@@ -5556,7 +5556,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C395">
@@ -5569,7 +5569,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C396">
@@ -5582,7 +5582,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C397">
@@ -5595,7 +5595,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C398">
@@ -5660,7 +5660,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C403">
@@ -5673,7 +5673,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C404">
@@ -5725,7 +5725,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C408">
@@ -5738,7 +5738,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C409">
@@ -5829,7 +5829,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C416">
@@ -5842,7 +5842,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C417">
@@ -5868,7 +5868,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C419">
@@ -5907,7 +5907,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C422">
@@ -5972,7 +5972,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C427">
@@ -6115,7 +6115,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C438">
@@ -6154,7 +6154,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C441">
@@ -6180,7 +6180,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C443">
@@ -6232,7 +6232,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C447">
@@ -6245,7 +6245,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C448">
@@ -6271,7 +6271,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C450">
@@ -6336,7 +6336,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C455">
@@ -6432,7 +6432,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C462">
@@ -6510,7 +6510,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C468">
@@ -6588,7 +6588,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C474">
@@ -6666,7 +6666,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C480">
@@ -6731,7 +6731,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C485">
@@ -6783,7 +6783,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C489">
@@ -6861,7 +6861,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C495">
@@ -6874,7 +6874,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C496">
@@ -6887,7 +6887,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C497">
@@ -6900,7 +6900,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C498">
@@ -6913,7 +6913,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C499">
@@ -6939,7 +6939,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C501">
@@ -6952,7 +6952,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C502">
@@ -6965,7 +6965,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C503">
@@ -7004,7 +7004,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C506">
@@ -7069,7 +7069,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C511">
@@ -7082,7 +7082,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C512">
@@ -7134,7 +7134,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C516">
@@ -7160,7 +7160,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C518">
@@ -7173,7 +7173,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C519">
@@ -7199,7 +7199,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C521">
@@ -7303,7 +7303,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C529">
@@ -7316,7 +7316,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C530">
@@ -7329,7 +7329,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C531">
@@ -7381,7 +7381,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C535">
@@ -7451,7 +7451,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C540">
@@ -7464,7 +7464,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C541">
@@ -7516,7 +7516,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C545">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C547">
@@ -7646,7 +7646,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C555">
@@ -7750,7 +7750,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C563">
@@ -7802,7 +7802,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C567">
@@ -7828,7 +7828,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C569">
@@ -7841,7 +7841,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C570">
@@ -7880,7 +7880,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C573">
@@ -7932,7 +7932,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C577">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C582">
@@ -8062,7 +8062,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C587">
@@ -8075,7 +8075,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C588">
@@ -8114,7 +8114,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C591">
@@ -8127,7 +8127,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C592">
@@ -8153,7 +8153,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C594">
@@ -8166,7 +8166,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C595">
@@ -8192,7 +8192,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C597">
@@ -8244,7 +8244,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C601">
@@ -8283,7 +8283,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C604">
@@ -8296,7 +8296,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C605">
@@ -8374,7 +8374,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C611">
@@ -8387,7 +8387,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C612">
@@ -8400,7 +8400,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C613">
@@ -8439,7 +8439,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C616">
@@ -8478,7 +8478,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C619">
@@ -8491,7 +8491,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C620">
@@ -8504,7 +8504,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C621">
@@ -8530,7 +8530,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -8782,7 +8782,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C642">
@@ -8808,7 +8808,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C644">
@@ -9627,7 +9627,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C707">
@@ -9944,7 +9944,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C731">
@@ -10113,7 +10113,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C744">
@@ -10178,7 +10178,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C749">
@@ -10204,7 +10204,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C751">
@@ -10352,7 +10352,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C762">
@@ -10404,7 +10404,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C766">
@@ -10495,7 +10495,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C773">
@@ -10734,7 +10734,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C791">
@@ -10773,7 +10773,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C794">
@@ -10825,7 +10825,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C798">
@@ -10882,7 +10882,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C802">
@@ -11025,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C813">
@@ -11064,7 +11064,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C816">
@@ -11077,7 +11077,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C817">
@@ -11090,7 +11090,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C818">
@@ -11103,7 +11103,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C819">
@@ -11116,7 +11116,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C820">
@@ -11142,7 +11142,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C822">
@@ -11155,7 +11155,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C823">
@@ -11220,7 +11220,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C828">
@@ -11246,7 +11246,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C830">
@@ -11272,7 +11272,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C832">
@@ -11298,7 +11298,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C834">
@@ -11311,7 +11311,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C835">
@@ -11324,7 +11324,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C836">
@@ -11337,7 +11337,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C837">
@@ -11350,7 +11350,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C838">
@@ -11376,7 +11376,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C840">
@@ -11454,7 +11454,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C846">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C853">
@@ -11584,7 +11584,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C856">
@@ -11649,7 +11649,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C861">
@@ -11675,7 +11675,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C863">
@@ -11753,7 +11753,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C869">
@@ -11883,7 +11883,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C879">
@@ -11909,7 +11909,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C881">
@@ -12325,7 +12325,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C913">
@@ -12468,7 +12468,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C924">
@@ -12533,7 +12533,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C929">
@@ -12754,7 +12754,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C946">
@@ -12767,7 +12767,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C947">
@@ -12780,7 +12780,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C948">
@@ -13105,7 +13105,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C973">
@@ -13118,7 +13118,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C974">
@@ -13274,7 +13274,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C986">
@@ -13911,7 +13911,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1035">
@@ -13976,7 +13976,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C1040">
@@ -13989,7 +13989,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1041">
@@ -14015,7 +14015,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1043">
@@ -14028,7 +14028,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1044">
@@ -14054,7 +14054,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1046">
@@ -14067,7 +14067,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1047">
@@ -14080,7 +14080,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1048">
@@ -14119,7 +14119,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1051">
@@ -14132,7 +14132,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1052">
@@ -14145,7 +14145,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1053">
@@ -14158,7 +14158,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1054">
@@ -14171,7 +14171,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1055">
@@ -14184,7 +14184,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1056">
@@ -14197,7 +14197,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C1057">
@@ -14223,7 +14223,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1059">
@@ -14501,7 +14501,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1080">
@@ -14605,7 +14605,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1088">
@@ -14722,7 +14722,7 @@
     <row r="1097">
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1097">
@@ -14891,7 +14891,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1110">
@@ -14904,7 +14904,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1111">
@@ -14982,7 +14982,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1117">
@@ -15099,7 +15099,7 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1126">
@@ -15177,7 +15177,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1132">
@@ -15398,7 +15398,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1149">
@@ -15463,7 +15463,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1154">
@@ -15541,7 +15541,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1160">
@@ -15554,7 +15554,7 @@
     <row r="1161">
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1161">
@@ -15567,7 +15567,7 @@
     <row r="1162">
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1162">
@@ -15606,7 +15606,7 @@
     <row r="1165">
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1165">
@@ -15632,7 +15632,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1167">
@@ -15697,7 +15697,7 @@
     <row r="1172">
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1172">
@@ -15827,7 +15827,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1182">
@@ -16040,7 +16040,7 @@
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1198">
@@ -16066,7 +16066,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1200">
@@ -16131,7 +16131,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1205">
@@ -16144,7 +16144,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1206">
@@ -16183,7 +16183,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1209">
@@ -16222,7 +16222,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1212">
@@ -16401,7 +16401,7 @@
     <row r="1225">
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1225">
@@ -16414,7 +16414,7 @@
     <row r="1226">
       <c r="B1226" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1226">
@@ -16505,7 +16505,7 @@
     <row r="1233">
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1233">
@@ -16635,7 +16635,7 @@
     <row r="1243">
       <c r="B1243" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1243">
@@ -16700,7 +16700,7 @@
     <row r="1248">
       <c r="B1248" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1248">
@@ -16778,7 +16778,7 @@
     <row r="1254">
       <c r="B1254" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1254">
@@ -16804,7 +16804,7 @@
     <row r="1256">
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1256">
@@ -16895,7 +16895,7 @@
     <row r="1263">
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1263">
@@ -16960,7 +16960,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1268">
@@ -16973,7 +16973,7 @@
     <row r="1269">
       <c r="B1269" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1269">
@@ -16986,7 +16986,7 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1270">
@@ -16999,7 +16999,7 @@
     <row r="1271">
       <c r="B1271" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1271">
@@ -17012,7 +17012,7 @@
     <row r="1272">
       <c r="B1272" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1272">
@@ -17025,7 +17025,7 @@
     <row r="1273">
       <c r="B1273" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1273">
@@ -17321,7 +17321,7 @@
     <row r="1295">
       <c r="B1295" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1295">
@@ -17508,7 +17508,7 @@
     <row r="1309">
       <c r="B1309" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1309">
@@ -17903,7 +17903,7 @@
     <row r="1339">
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1339">
@@ -18051,7 +18051,7 @@
     <row r="1350">
       <c r="B1350" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1350">
@@ -18116,7 +18116,7 @@
     <row r="1355">
       <c r="B1355" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1355">
@@ -18142,7 +18142,7 @@
     <row r="1357">
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1357">
@@ -18168,7 +18168,7 @@
     <row r="1359">
       <c r="B1359" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1359">
@@ -18181,7 +18181,7 @@
     <row r="1360">
       <c r="B1360" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1360">
@@ -18220,7 +18220,7 @@
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1363">
@@ -18246,7 +18246,7 @@
     <row r="1365">
       <c r="B1365" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1365">
@@ -18363,7 +18363,7 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr">
@@ -18459,7 +18459,7 @@
     <row r="1381">
       <c r="B1381" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1381">
@@ -18511,7 +18511,7 @@
     <row r="1385">
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1385">
@@ -18693,7 +18693,7 @@
     <row r="1399">
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1399">
@@ -18719,7 +18719,7 @@
     <row r="1401">
       <c r="B1401" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1401">
@@ -18953,7 +18953,7 @@
     <row r="1419">
       <c r="B1419" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1419">
@@ -18966,7 +18966,7 @@
     <row r="1420">
       <c r="B1420" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1420">
@@ -19200,7 +19200,7 @@
     <row r="1438">
       <c r="B1438" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1438">
@@ -19213,7 +19213,7 @@
     <row r="1439">
       <c r="B1439" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1439">
@@ -19252,7 +19252,7 @@
     <row r="1442">
       <c r="B1442" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1442">
@@ -19265,7 +19265,7 @@
     <row r="1443">
       <c r="B1443" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1443">
@@ -19278,7 +19278,7 @@
     <row r="1444">
       <c r="B1444" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1444">
@@ -19291,7 +19291,7 @@
     <row r="1445">
       <c r="B1445" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1445">
@@ -19395,7 +19395,7 @@
     <row r="1453">
       <c r="B1453" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1453">
@@ -19473,7 +19473,7 @@
     <row r="1459">
       <c r="B1459" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1459">
@@ -19486,7 +19486,7 @@
     <row r="1460">
       <c r="B1460" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1460">
@@ -19525,7 +19525,7 @@
     <row r="1463">
       <c r="B1463" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1463">
@@ -19603,7 +19603,7 @@
     <row r="1469">
       <c r="B1469" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1469">
@@ -19629,7 +19629,7 @@
     <row r="1471">
       <c r="B1471" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1471">
@@ -19746,7 +19746,7 @@
     <row r="1480">
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1480">
@@ -19785,7 +19785,7 @@
     <row r="1483">
       <c r="B1483" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1483">
@@ -19798,7 +19798,7 @@
     <row r="1484">
       <c r="B1484" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1484">
@@ -19850,7 +19850,7 @@
     <row r="1488">
       <c r="B1488" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1488">
@@ -19967,7 +19967,7 @@
     <row r="1497">
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1497">
@@ -20006,7 +20006,7 @@
     <row r="1500">
       <c r="B1500" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1500">
@@ -20097,7 +20097,7 @@
     <row r="1507">
       <c r="B1507" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1507">
@@ -20513,7 +20513,7 @@
     <row r="1539">
       <c r="B1539" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1539">
@@ -20656,7 +20656,7 @@
     <row r="1550">
       <c r="B1550" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1550">
@@ -20669,7 +20669,7 @@
     <row r="1551">
       <c r="B1551" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1551">
@@ -20874,7 +20874,7 @@
     <row r="1566">
       <c r="B1566" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1566">
@@ -21056,7 +21056,7 @@
     <row r="1580">
       <c r="B1580" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1580">
@@ -21108,7 +21108,7 @@
     <row r="1584">
       <c r="B1584" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1584">
@@ -21121,7 +21121,7 @@
     <row r="1585">
       <c r="B1585" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1585">
@@ -21251,7 +21251,7 @@
     <row r="1595">
       <c r="B1595" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1595">
@@ -21264,7 +21264,7 @@
     <row r="1596">
       <c r="B1596" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1596">
@@ -21342,7 +21342,7 @@
     <row r="1602">
       <c r="B1602" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1602">
@@ -21394,7 +21394,7 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1606">
@@ -21402,41 +21402,6 @@
       </c>
       <c r="D1606">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1608">
-      <c r="A1608" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1609">
-      <c r="A1609" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1610">
-      <c r="A1610" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1611">
-      <c r="A1611" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1612">
-      <c r="A1612" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
